--- a/biology/Médecine/Lycanthropie_clinique/Lycanthropie_clinique.xlsx
+++ b/biology/Médecine/Lycanthropie_clinique/Lycanthropie_clinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lycanthropie clinique est une maladie psychiatrique dans laquelle le patient se croit transformé en loup ou, par extension, en tout autre type d'animal. Ce nom est tiré de la croyance en la lycanthropie, documentée par des procès et de nombreux récits mythologiques et légendaires. La croyance en la lycanthropie connaît diverses explications, telles que la peur du loup, le mysticisme, diverses maladies ou encore des prises de drogues et d'hallucinogènes. La lycanthropie clinique est l'une de ces possibles explications.[pas clair]
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Wier, médecin des Pays-Bas (1515-1588), explique la lycanthropie comme un phénomène imaginaire et maladif[1]. Il décrit ainsi les malades qui en sont atteints : ils sont pâles, ont les yeux enfoncés et la langue fort sèche.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Wier, médecin des Pays-Bas (1515-1588), explique la lycanthropie comme un phénomène imaginaire et maladif. Il décrit ainsi les malades qui en sont atteints : ils sont pâles, ont les yeux enfoncés et la langue fort sèche.
 Il en est de même de Jean de Nynauld qui publie en 1615 De la lycanthropie, transformation et extase des sorciers « mélancholie ou folie louvière à cause de ceux qui en estoient atteints pensent être transformés en loup ou en chien. »
 Deux siècles plus tard, Collin de Plancy, dans son Dictionnaire infernal, publié en 1818, définit la lycanthropie comme une « maladie qui, dans les siècles où l’on ne voyait partout que démons, sorcelleries et maléfices, troublait l’imagination des cerveaux faibles, au point qu’ils se croyaient métamorphosés en loups-garous, et se conduisaient en conséquence. Les mélancoliques étaient plus que les autres disposés à devenir lycanthropes, c’est-à-dire hommes loups. ».
 Aujourd'hui, la croyance dans le fait que son propre corps puisse se transformer en celui d'un loup est une zoopathie, à savoir un symptôme d'une maladie psychiatrique en cours. La structure de ce délire est de type paraphrénique.
@@ -545,7 +559,9 @@
           <t>Personnages célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Henri-Jules de Bourbon-Condé
 Manuel Blanco Romasanta</t>
